--- a/result/latency/BFApp2.xlsx
+++ b/result/latency/BFApp2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>time</t>
   </si>
@@ -53,68 +53,103 @@
     <t>latency_avg</t>
   </si>
   <si>
+    <t xml:space="preserve">EIS = 35: CSP5, 
+</t>
+  </si>
+  <si>
+    <t>no result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 83: CSP4, CSP5, 
+EIS = 28: CSP6, CSP9, 
+EIS = 60: CSP7, CSP5, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 16: CSP10, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 83: CSP4, CSP5, 
+EIS = 85: CSP1, CSP8, 
+EIS = 60: CSP10, CSP5, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 49: CSP9, 
+EIS = 28: CSP9, 
+EIS = 16: CSP7, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 16: CSP10, CSP2, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 16: CSP2, 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">EIS = 49: CSP1, CSP9, CSP5, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 83: CSP4, CSP5, 
-</t>
-  </si>
-  <si>
-    <t>no result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 79: CSP1, CSP7, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 75: CSP1, CSP6, 
-EIS = 62: CSP7, CSP3, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 16: CSP10, CSP1, CSP2, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 35: CSP5, 
-EIS = 16: CSP7, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 60: CSP7, 
+EIS = 18: CSP4, CSP10, CSP5, 
+EIS = 28: CSP4, CSP10, CSP6, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 49: CSP9, CSP5, 
+EIS = 28: CSP10, CSP6, 
+EIS = 16: CSP1, CSP2, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 49: CSP5, 
+EIS = 11: CSP6, 
+EIS = 75: CSP3, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 75: CSP3, 
 EIS = 28: CSP9, 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">EIS = 75: CSP1, CSP7, CSP3, 
-EIS = 28: CSP4, CSP10, CSP7, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 12: CSP1, CSP9, CSP2, 
-EIS = 79: CSP1, CSP6, CSP7, 
-EIS = 48: CSP10, CSP6, CSP7, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 57: CSP1, CSP6, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 49: CSP9, 
-EIS = 18: CSP6, 
-EIS = 75: CSP3, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 28: CSP10, CSP6, 
-EIS = 16: CSP10, CSP2, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 49: CSP9, 
-EIS = 75: CSP6, 
+    <t xml:space="preserve">EIS = 35: CSP4, CSP7, CSP5, 
+EIS = 16: CSP10, CSP1, CSP2, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 49: CSP3, 
+EIS = 28: CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 35: CSP4, CSP5, 
+EIS = 28: CSP6, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 49: CSP6, CSP9, CSP5, 
+EIS = 18: CSP4, CSP10, CSP6, 
+EIS = 35: CSP4, CSP7, CSP5, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 73: CSP1, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 83: CSP4, 
+EIS = 28: CSP9, 
+EIS = 60: CSP5, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 11: CSP10, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 42: CSP4, 
+EIS = 11: CSP10, 
 </t>
   </si>
 </sst>
@@ -209,98 +244,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8846866</v>
+        <v>1.236087201</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
         <v>9.0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>12.94878780452432</v>
+        <v>9.176687555837672</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
-        <v>40.04840669239389</v>
+        <v>25.271732990372527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4535257</v>
+        <v>0.7771486</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>6.5079735628846205</v>
+        <v>-1.0</v>
       </c>
       <c r="K3" t="n">
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.086463915326206</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3707422</v>
+        <v>0.565884299</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.0</v>
+        <v>32.84798470072667</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -309,47 +344,47 @@
         <v>2.0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.0</v>
+        <v>32.43287026964594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3562378</v>
+        <v>0.6351665</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
         <v>8.0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.0</v>
+        <v>6.49297761647666</v>
       </c>
       <c r="K5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="n">
         <v>1.0</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.0</v>
+        <v>24.962430651367367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.314383</v>
+        <v>0.778862803</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -357,139 +392,139 @@
         <v>14.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.0</v>
+        <v>32.31316778656302</v>
       </c>
       <c r="K6" t="n">
         <v>3.0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.0</v>
+        <v>29.04058655787969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.33648</v>
+        <v>0.898488901</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>9.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>8.0</v>
-      </c>
       <c r="G7" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>6.392693258843796</v>
+        <v>26.990388377993686</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M7" t="n">
-        <v>27.640507903656584</v>
+        <v>32.31272488994129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.366994</v>
+        <v>0.5498883</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.0</v>
+        <v>9.917235884969674</v>
       </c>
       <c r="K8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.0</v>
+        <v>23.970415104365024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3382497</v>
+        <v>0.46095</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>17.2507694283912</v>
+        <v>9.195400450952715</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M9" t="n">
-        <v>31.064724909351465</v>
+        <v>22.978399557362685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3461665</v>
+        <v>0.339561799</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -497,69 +532,69 @@
         <v>9.0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>11.821619230647086</v>
+        <v>35.473123726147456</v>
       </c>
       <c r="K10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L10" t="n">
         <v>3.0</v>
       </c>
       <c r="M10" t="n">
-        <v>33.95174648587414</v>
+        <v>50.54950782954445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3228678</v>
+        <v>0.3396164</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" t="n">
         <v>6.0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>17.027406201210074</v>
+        <v>33.96014781364238</v>
       </c>
       <c r="K11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.026570729436344</v>
+        <v>41.302417321225846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.305034</v>
+        <v>0.4867202</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -570,332 +605,332 @@
         <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G12" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>20.6526730009564</v>
+        <v>26.36145348032732</v>
       </c>
       <c r="K12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L12" t="n">
         <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>36.061794317906504</v>
+        <v>35.267681405323025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3443477</v>
+        <v>0.4725225</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F13" t="n">
         <v>8.0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" t="n">
-        <v>23.594966467612736</v>
+        <v>19.128107141809448</v>
       </c>
       <c r="K13" t="n">
         <v>2.0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M13" t="n">
-        <v>49.09490064434681</v>
+        <v>22.78570387347923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5151573</v>
+        <v>0.4331918</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>48.0</v>
+        <v>6.0</v>
       </c>
       <c r="E14" t="n">
         <v>6.0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>33.39170062808409</v>
+        <v>23.4478501561926</v>
       </c>
       <c r="K14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" t="n">
         <v>3.0</v>
       </c>
       <c r="M14" t="n">
-        <v>36.61330151912136</v>
+        <v>41.4871412454243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5282022</v>
+        <v>0.2969897</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>46.0</v>
+        <v>5.0</v>
       </c>
       <c r="E15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F15" t="n">
         <v>9.0</v>
       </c>
-      <c r="F15" t="n">
-        <v>7.0</v>
-      </c>
       <c r="G15" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>5.775150775553766</v>
+        <v>20.378511023395312</v>
       </c>
       <c r="K15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" t="n">
-        <v>49.02750950388723</v>
+        <v>28.308599959655876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4644903</v>
+        <v>0.223443101</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.0</v>
+        <v>23.329257873292836</v>
       </c>
       <c r="K16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" t="n">
         <v>2.0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.0</v>
+        <v>36.733803694468484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3220572</v>
+        <v>0.2360509</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" t="n">
         <v>8.0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.0</v>
+        <v>33.22927957988094</v>
       </c>
       <c r="K17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L17" t="n">
         <v>3.0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.0</v>
+        <v>45.25748622698529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2561533</v>
+        <v>0.238359901</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="E18" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J18" t="n">
-        <v>22.1386028663576</v>
+        <v>6.201040006290543</v>
       </c>
       <c r="K18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M18" t="n">
-        <v>26.558651573872424</v>
+        <v>57.81074332057448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.220338</v>
+        <v>0.211483198</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="E19" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="F19" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.0</v>
+        <v>25.081070100928326</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L19" t="n">
         <v>1.0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.0</v>
+        <v>20.687238751216523</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2099312</v>
+        <v>0.2275488</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G20" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J20" t="n">
-        <v>21.733195443135017</v>
+        <v>9.44347809371856</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M20" t="n">
-        <v>38.48319744278231</v>
+        <v>45.24444992833107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2019674</v>
+        <v>0.208121499</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>9.0</v>
+        <v>49.0</v>
       </c>
       <c r="E21" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="F21" t="n">
         <v>9.0</v>
       </c>
       <c r="G21" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>12.68282235153654</v>
+        <v>13.531475219020589</v>
       </c>
       <c r="K21" t="n">
         <v>2.0</v>
@@ -904,7 +939,7 @@
         <v>1.0</v>
       </c>
       <c r="M21" t="n">
-        <v>33.25583494058725</v>
+        <v>34.59674748522552</v>
       </c>
     </row>
   </sheetData>
